--- a/biology/Botanique/Château_Thorenc/Château_Thorenc.xlsx
+++ b/biology/Botanique/Château_Thorenc/Château_Thorenc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Thorenc</t>
+          <t>Château_Thorenc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Thorenc est une résidence de villégiature construite vers 1870 et située dans le quartier de Terrefial à Cannes, aux abords du massif de la Californie et à la limite du Cannet.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Thorenc</t>
+          <t>Château_Thorenc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les terres furent acquises en 1832 par Sébastien de Riouffe, baron de Thorenc (petit-fils de Jean Riouffe né en 1662 à Cannes, anobli par Louis XIV) et qui repose au cimetière Montmartre (photo[1] et photo[2]). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les terres furent acquises en 1832 par Sébastien de Riouffe, baron de Thorenc (petit-fils de Jean Riouffe né en 1662 à Cannes, anobli par Louis XIV) et qui repose au cimetière Montmartre (photo et photo). 
 Le domaine du château de Thorenc fut construit vers 1870 pour la duchesse de Bedford. En 1876 il est la résidence de Sir Richard Atwood Glass. Il appartient ensuite à la duchesse de Montrose. Le terrain de jeu est remplacé par un lawn-tennis. En 1896 le chef jardinier Denis Troncy qui remplace Lucien Lhotte apporte quelques modifications pour Lord Rendel. C'est vraisemblablement vers cette époque que fut réalisé le cryptoportique.
 En 1923 un nouveau partage lotit le reste du domaine. En 1926 le nouveau propriétaire divise le château, pour en faire deux villas en faisant supprimer la partie centrale de la bâtisse.
 Vers 1928-1930, le pionnier de l'automobile Albert Neubauer fait aménager la villa Ouest par l'architecte cannois François Arluc. Ce sont les architectes Louis Süe et Léon Le Bel de Grasse, avec la collaboration de Jean-Baptiste Dental, paysagiste pépiniériste à Biot qui reconstruisent le château. Le peintre Jean-Gabriel Domergue y réalise les décors du salon vénitien. En 1932, les architectes Charles Legrand de Paris et Léon Le Bel, conçoivent le nouveau portail et la conciergerie Ouest.
 En 1937, le château devient la résidence de l'empereur d’Annam, Bảo Đại, qu'on voyait souvent dans les rues de Cannes pilotant un impressionnant side-car 1 000 cm3 Vincent H.R.D. Il fait appel au décorateur parisien installé à Nice Jacques Courtois. L'ex-souverain vietnamien conserve le château jusqu’au début des années 1960.
 En 1968, l'architecte Offenstein remplace la maison par un immeuble. 
-Depuis, le domaine est devenu une copropriété moderne et luxueuse. Elle compte de nombreux appartements haut de gamme mais a su conserver sa fastueuse entrée d'origine. Le parc botanique a pu être conservé[3].
+Depuis, le domaine est devenu une copropriété moderne et luxueuse. Elle compte de nombreux appartements haut de gamme mais a su conserver sa fastueuse entrée d'origine. Le parc botanique a pu être conservé.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Thorenc</t>
+          <t>Château_Thorenc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Thorenc</t>
+          <t>Château_Thorenc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1870
 À l'origine, la propriété, parc de trente-six hectares sur le quartier de Terrefial, depuis la colline du Pezou jusqu'aux limites des communes du Cannet et de Vallauris, était composée d'une végétation tropicale sur la partie basse et dans la partie haute de grands bois de pins et de chênes, des cultures d'orangers, de citronniers et des oliviers, pour la duchesse de Bedford. 
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Thorenc</t>
+          <t>Château_Thorenc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Patrimoine culturel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine résidence de villégiature, le château Thorenc, désormais loti en copropriété, est une propriété privée située 38 boulevard d'Oxford et 12 avenue d'Annam à Cannes. L'ensemble[4], le parc[5], le jardin d'agrément[6] et sa nymphée[7], sont inscrits depuis 2009 à l'inventaire général du patrimoine culturel de la région Provence-Alpes-Côte d'Azur au titre du recensement du patrimoine balnéaire.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine résidence de villégiature, le château Thorenc, désormais loti en copropriété, est une propriété privée située 38 boulevard d'Oxford et 12 avenue d'Annam à Cannes. L'ensemble, le parc, le jardin d'agrément et sa nymphée, sont inscrits depuis 2009 à l'inventaire général du patrimoine culturel de la région Provence-Alpes-Côte d'Azur au titre du recensement du patrimoine balnéaire.
 			Cryptoportique.
 			Rivière artificielle.
 			Rivière artificielle.
